--- a/Ch04Ex03/Ch04Ex03.xlsx
+++ b/Ch04Ex03/Ch04Ex03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13260" windowHeight="4500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13260" windowHeight="4500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Net Present Value" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Discount rate</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Weighted Project Scores</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -142,8 +148,16 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -180,6 +194,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,11 +341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279218432"/>
-        <c:axId val="274662528"/>
+        <c:axId val="127219200"/>
+        <c:axId val="127220736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279218432"/>
+        <c:axId val="127219200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,7 +355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274662528"/>
+        <c:crossAx val="127220736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -346,7 +363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274662528"/>
+        <c:axId val="127220736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,14 +374,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279218432"/>
+        <c:crossAx val="127219200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -455,11 +471,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="268104448"/>
-        <c:axId val="275362560"/>
+        <c:axId val="127269888"/>
+        <c:axId val="127279872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="268104448"/>
+        <c:axId val="127269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275362560"/>
+        <c:crossAx val="127279872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -476,7 +492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="275362560"/>
+        <c:axId val="127279872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268104448"/>
+        <c:crossAx val="127269888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -869,10 +885,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,15 +1117,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A18:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,6 +1140,26 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1300,6 +1336,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1313,8 +1350,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,13 +1437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" activeCellId="1" sqref="C1:F1 C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,7 +1633,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f>B2*C2</f>
+        <f t="shared" ref="C12:C18" si="0">B2*C2</f>
         <v>22.5</v>
       </c>
       <c r="D12">
@@ -1614,109 +1651,109 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D18" si="0">B3*D3</f>
+        <f t="shared" ref="D13:D18" si="1">B3*D3</f>
         <v>13.5</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E18" si="1">B3*E3</f>
+        <f t="shared" ref="E13:E18" si="2">B3*E3</f>
         <v>7.5</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F18" si="2">B3*F3</f>
+        <f t="shared" ref="F13:F18" si="3">B3*F3</f>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="E18">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>B6*C6</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f>B7*C7</f>
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f>B8*C8</f>
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
